--- a/Code/Results/Cases/Case_4_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.089159888144934</v>
+        <v>3.584715618562996</v>
       </c>
       <c r="C2">
-        <v>1.866046564915166</v>
+        <v>0.7124868897915917</v>
       </c>
       <c r="D2">
-        <v>0.2025670105840902</v>
+        <v>0.07670995491601218</v>
       </c>
       <c r="E2">
-        <v>0.01467013648997906</v>
+        <v>0.01715278594704372</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007851851517479023</v>
+        <v>0.002576924206532098</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.269281808937592</v>
+        <v>2.33792461914139</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4648614016708024</v>
+        <v>0.3463167753486687</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.636640506469988</v>
+        <v>2.36834847398238</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.260178346920952</v>
+        <v>3.409791459777011</v>
       </c>
       <c r="C3">
-        <v>1.597061871657957</v>
+        <v>0.649435907127156</v>
       </c>
       <c r="D3">
-        <v>0.173461728475516</v>
+        <v>0.06981875351138456</v>
       </c>
       <c r="E3">
-        <v>0.01326177485274371</v>
+        <v>0.01676052461432231</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007989295103982778</v>
+        <v>0.002584884137783769</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.059242030556419</v>
+        <v>2.298994561044381</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4060538037562935</v>
+        <v>0.3345601425693019</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.620970811992038</v>
+        <v>2.36650016725136</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.766750768645466</v>
+        <v>3.304972070762403</v>
       </c>
       <c r="C4">
-        <v>1.437061505535439</v>
+        <v>0.6111925746459406</v>
       </c>
       <c r="D4">
-        <v>0.1561274139886848</v>
+        <v>0.06563747383457041</v>
       </c>
       <c r="E4">
-        <v>0.01242676918698216</v>
+        <v>0.01651634184707262</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008075083081889849</v>
+        <v>0.002590019711914158</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.936732386900758</v>
+        <v>2.276372573284661</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3711529891728134</v>
+        <v>0.3275767838947417</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.614433846715528</v>
+        <v>2.366031438250417</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.569007205730202</v>
+        <v>3.262899589111157</v>
       </c>
       <c r="C5">
-        <v>1.37294974037485</v>
+        <v>0.5957231724231633</v>
       </c>
       <c r="D5">
-        <v>0.1491770401349157</v>
+        <v>0.06394579063957906</v>
       </c>
       <c r="E5">
-        <v>0.01209244482842475</v>
+        <v>0.01641597210753787</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008110446919942227</v>
+        <v>0.002592175156307088</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.888226139579118</v>
+        <v>2.267473042003161</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3571917931855637</v>
+        <v>0.3247896098815204</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.612467483285371</v>
+        <v>2.366006437633075</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.536357630354303</v>
+        <v>3.255952055657701</v>
       </c>
       <c r="C6">
-        <v>1.362364290487903</v>
+        <v>0.5931613478694544</v>
       </c>
       <c r="D6">
-        <v>0.148029216416532</v>
+        <v>0.06366561637783263</v>
       </c>
       <c r="E6">
-        <v>0.01203724923032201</v>
+        <v>0.01639925291774436</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008116344925224803</v>
+        <v>0.002592536857886048</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.880251791938065</v>
+        <v>2.266014466711965</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3548881803124431</v>
+        <v>0.3243303250867058</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.612181001835467</v>
+        <v>2.366012269527459</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.764071155161332</v>
+        <v>3.304402076060512</v>
       </c>
       <c r="C7">
-        <v>1.436192714175263</v>
+        <v>0.6109834871369912</v>
       </c>
       <c r="D7">
-        <v>0.1560332455694038</v>
+        <v>0.06561461015702719</v>
       </c>
       <c r="E7">
-        <v>0.01242223814984911</v>
+        <v>0.0165149917543097</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008075558306824431</v>
+        <v>0.002590048527042921</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.936072728845772</v>
+        <v>2.276251263020754</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3709636983682429</v>
+        <v>0.3275389585430304</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.614404599449202</v>
+        <v>2.366030430872542</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.799719697075204</v>
+        <v>3.523860568977966</v>
       </c>
       <c r="C8">
-        <v>1.772096574263117</v>
+        <v>0.6906473697472961</v>
       </c>
       <c r="D8">
-        <v>0.1924063846537081</v>
+        <v>0.07432329587261677</v>
       </c>
       <c r="E8">
-        <v>0.01417736545145942</v>
+        <v>0.01701821056465747</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007898986342784358</v>
+        <v>0.002579617444389534</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.195387604049529</v>
+        <v>2.324233742494854</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4443066744480575</v>
+        <v>0.3422139167862639</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.630547150776465</v>
+        <v>2.367572012185533</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.985276028704845</v>
+        <v>3.975105811234641</v>
       </c>
       <c r="C9">
-        <v>2.482815992459621</v>
+        <v>0.8507521972218228</v>
       </c>
       <c r="D9">
-        <v>0.2691319596288224</v>
+        <v>0.09181357296449733</v>
       </c>
       <c r="E9">
-        <v>0.01793909397337501</v>
+        <v>0.01797976129167811</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007560986409629164</v>
+        <v>0.002561119217767581</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.766099924356908</v>
+        <v>2.428640254854301</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5999669015742768</v>
+        <v>0.3728856257973661</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.690836596031858</v>
+        <v>2.3759499877564</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.738321158449708</v>
+        <v>4.319941277953262</v>
       </c>
       <c r="C10">
-        <v>3.055693416304848</v>
+        <v>0.970975693340165</v>
       </c>
       <c r="D10">
-        <v>0.3307400205934528</v>
+        <v>0.1049392873770074</v>
       </c>
       <c r="E10">
-        <v>0.0210464223334057</v>
+        <v>0.01867251963511674</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007312888586405997</v>
+        <v>0.002548705051328908</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.242021083908881</v>
+        <v>2.511851558253156</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7253758304774465</v>
+        <v>0.3966163120191339</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.759687257990265</v>
+        <v>2.385468838339165</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.5833898149375</v>
+        <v>4.47983448044306</v>
       </c>
       <c r="C11">
-        <v>3.332942123852774</v>
+        <v>1.026282647888479</v>
       </c>
       <c r="D11">
-        <v>0.3604767552344157</v>
+        <v>0.1109757609534086</v>
       </c>
       <c r="E11">
-        <v>0.02258047106380445</v>
+        <v>0.01898507967868746</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007198667272315896</v>
+        <v>0.002543309409350028</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.476318942482905</v>
+        <v>2.551167412840883</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7859448493389323</v>
+        <v>0.4076811398072095</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.798434145372966</v>
+        <v>2.390551525195491</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.91194160030329</v>
+        <v>4.5408270640811</v>
       </c>
       <c r="C12">
-        <v>3.440940364330459</v>
+        <v>1.04731863070748</v>
       </c>
       <c r="D12">
-        <v>0.3720458945177398</v>
+        <v>0.1132714622368667</v>
       </c>
       <c r="E12">
-        <v>0.02318393001501384</v>
+        <v>0.01910309782832975</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007155065812763251</v>
+        <v>0.00254130212559551</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.568201869920046</v>
+        <v>2.566269494590074</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.809508573675032</v>
+        <v>0.4119106046595675</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.814404262601556</v>
+        <v>2.392586217727086</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.84077046753293</v>
+        <v>4.527671298492464</v>
       </c>
       <c r="C13">
-        <v>3.417535581217123</v>
+        <v>1.042783983344691</v>
       </c>
       <c r="D13">
-        <v>0.3695393872466042</v>
+        <v>0.1127765987219647</v>
       </c>
       <c r="E13">
-        <v>0.02305286192394185</v>
+        <v>0.01907769522523495</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007164474508987162</v>
+        <v>0.00254173283637703</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.548261521084214</v>
+        <v>2.563007412604208</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.804403533402251</v>
+        <v>0.4109979478878643</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.810902813481363</v>
+        <v>2.392143089776766</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.61023750396646</v>
+        <v>4.484843413918497</v>
       </c>
       <c r="C14">
-        <v>3.341762773722905</v>
+        <v>1.028011416371157</v>
       </c>
       <c r="D14">
-        <v>0.3614219585764857</v>
+        <v>0.1111644305643154</v>
       </c>
       <c r="E14">
-        <v>0.02262963079139269</v>
+        <v>0.01899479577774166</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007195088146722813</v>
+        <v>0.002543143550580035</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.483810908352652</v>
+        <v>2.552405559408896</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7878700710781459</v>
+        <v>0.40802830571198</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.799720488236943</v>
+        <v>2.390716705920823</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.47019954037978</v>
+        <v>4.458668267746475</v>
       </c>
       <c r="C15">
-        <v>3.295762749416554</v>
+        <v>1.018974944027036</v>
       </c>
       <c r="D15">
-        <v>0.3564920934196607</v>
+        <v>0.1101782218080558</v>
       </c>
       <c r="E15">
-        <v>0.02237350636603885</v>
+        <v>0.01894397387374536</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000721378933950674</v>
+        <v>0.002544012325052431</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.444764863728977</v>
+        <v>2.545939601274114</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7778286854226621</v>
+        <v>0.4062144729097383</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.793047767994722</v>
+        <v>2.389857381832968</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.684187649574255</v>
+        <v>4.309553565165743</v>
       </c>
       <c r="C16">
-        <v>3.037958772071477</v>
+        <v>0.9673739825688017</v>
       </c>
       <c r="D16">
-        <v>0.328836080839892</v>
+        <v>0.1045461418852369</v>
       </c>
       <c r="E16">
-        <v>0.02094900719547432</v>
+        <v>0.01865204369364015</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007320313621472859</v>
+        <v>0.00254906271078347</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.227115340903907</v>
+        <v>2.509311920460803</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7214980587655759</v>
+        <v>0.39589868296666</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.757322861305909</v>
+        <v>2.385151966590996</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.215270561845841</v>
+        <v>4.21885811038976</v>
       </c>
       <c r="C17">
-        <v>2.884460252243912</v>
+        <v>0.935879060238392</v>
       </c>
       <c r="D17">
-        <v>0.3123480954595266</v>
+        <v>0.1011081049491338</v>
       </c>
       <c r="E17">
-        <v>0.02010926798807944</v>
+        <v>0.01847231405419425</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000738521684927762</v>
+        <v>0.002552225224930161</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.098536246645935</v>
+        <v>2.487219240100472</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6879202437580147</v>
+        <v>0.3896398167284048</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.737455357175946</v>
+        <v>2.382459338678004</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.949919946721366</v>
+        <v>4.16697671127281</v>
       </c>
       <c r="C18">
-        <v>2.797694027977002</v>
+        <v>0.9178218288915332</v>
       </c>
       <c r="D18">
-        <v>0.3030211847818265</v>
+        <v>0.09913677976683744</v>
       </c>
       <c r="E18">
-        <v>0.01963723161300468</v>
+        <v>0.0183686937589993</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000742243041008474</v>
+        <v>0.002554067918882623</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.026213080910622</v>
+        <v>2.474649556658221</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6689297624683661</v>
+        <v>0.3860652182853528</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.726710551094811</v>
+        <v>2.38098133215982</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.860780010628559</v>
+        <v>4.149459095374027</v>
       </c>
       <c r="C19">
-        <v>2.768561490449656</v>
+        <v>0.9117177772314449</v>
       </c>
       <c r="D19">
-        <v>0.2998884742778358</v>
+        <v>0.09847036597430758</v>
       </c>
       <c r="E19">
-        <v>0.01947915410454559</v>
+        <v>0.01833356682145215</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007435014252145619</v>
+        <v>0.002554695901556181</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.001990020951226</v>
+        <v>2.470417172280605</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.662552071463395</v>
+        <v>0.3848592516008722</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.723183640634232</v>
+        <v>2.380492997405483</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.264725536178048</v>
+        <v>4.228483312697563</v>
       </c>
       <c r="C20">
-        <v>2.90063891637476</v>
+        <v>0.9392257378867157</v>
       </c>
       <c r="D20">
-        <v>0.31408666344241</v>
+        <v>0.1014734512462212</v>
       </c>
       <c r="E20">
-        <v>0.02019749215184508</v>
+        <v>0.01849147168171417</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007378320895168599</v>
+        <v>0.002551886118912439</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.112050903804189</v>
+        <v>2.489556792404244</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6914604842904595</v>
+        <v>0.390303456663105</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.739498168606445</v>
+        <v>2.382738641299966</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.67770311173922</v>
+        <v>4.497410862139191</v>
       </c>
       <c r="C21">
-        <v>3.363931679677876</v>
+        <v>1.032347938197177</v>
       </c>
       <c r="D21">
-        <v>0.3637972954599604</v>
+        <v>0.1116376937106622</v>
       </c>
       <c r="E21">
-        <v>0.02275328294522971</v>
+        <v>0.01901915438766544</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007186107042188564</v>
+        <v>0.002542728216470746</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.502650332845505</v>
+        <v>2.555513742311248</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7927082006124238</v>
+        <v>0.40889948527456</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.802967672755756</v>
+        <v>2.39113267000954</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.65208605696023</v>
+        <v>4.675765976915727</v>
       </c>
       <c r="C22">
-        <v>3.684678408089042</v>
+        <v>1.093749295746591</v>
       </c>
       <c r="D22">
-        <v>0.3981256525585053</v>
+        <v>0.1183380420049787</v>
       </c>
       <c r="E22">
-        <v>0.02455869945737099</v>
+        <v>0.01936204877892678</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007058352458400773</v>
+        <v>0.002536952298844248</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.776743689602313</v>
+        <v>2.599869677914029</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8626174466127736</v>
+        <v>0.4212833678134587</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.852164460323934</v>
+        <v>2.397260604601513</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.12669971507682</v>
+        <v>4.580333845923178</v>
       </c>
       <c r="C23">
-        <v>3.511598400630135</v>
+        <v>1.060927503570952</v>
       </c>
       <c r="D23">
-        <v>0.3796105918703603</v>
+        <v>0.1147565514445432</v>
       </c>
       <c r="E23">
-        <v>0.02358060701831377</v>
+        <v>0.01917921060058347</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000712679374848205</v>
+        <v>0.002540015947947563</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.628492863289097</v>
+        <v>2.576080528613403</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8249150309933952</v>
+        <v>0.4146525531628242</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.825109021218793</v>
+        <v>2.393930675418289</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.242353870103784</v>
+        <v>4.224130947648746</v>
       </c>
       <c r="C24">
-        <v>2.893319970193318</v>
+        <v>0.9377125506532593</v>
       </c>
       <c r="D24">
-        <v>0.3133001871219534</v>
+        <v>0.1013082618692636</v>
       </c>
       <c r="E24">
-        <v>0.02015757292452669</v>
+        <v>0.01848281142785968</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007381438855496938</v>
+        <v>0.002552039352468722</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.105935990991327</v>
+        <v>2.488499575092774</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6898589727147453</v>
+        <v>0.3900033512578744</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.738572520481995</v>
+        <v>2.382612150618613</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.3726057031962</v>
+        <v>3.850737555175044</v>
       </c>
       <c r="C25">
-        <v>2.283241982724746</v>
+        <v>0.8070006309040991</v>
       </c>
       <c r="D25">
-        <v>0.2476193212545184</v>
+        <v>0.08703535973486964</v>
       </c>
       <c r="E25">
-        <v>0.01687386075127861</v>
+        <v>0.01772216629644685</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007651981597386718</v>
+        <v>0.002565915674529324</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.603334187671521</v>
+        <v>2.399269320998911</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5562377016729698</v>
+        <v>0.3643811083563264</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.670811398943584</v>
+        <v>2.373100110409055</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.584715618562996</v>
+        <v>6.089159888144934</v>
       </c>
       <c r="C2">
-        <v>0.7124868897915917</v>
+        <v>1.866046564915393</v>
       </c>
       <c r="D2">
-        <v>0.07670995491601218</v>
+        <v>0.2025670105842181</v>
       </c>
       <c r="E2">
-        <v>0.01715278594704372</v>
+        <v>0.0146701364899231</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002576924206532098</v>
+        <v>0.0007851851518779018</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.33792461914139</v>
+        <v>2.269281808937606</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3463167753486687</v>
+        <v>0.4648614016708876</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.36834847398238</v>
+        <v>1.636640506470044</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.409791459777011</v>
+        <v>5.260178346920782</v>
       </c>
       <c r="C3">
-        <v>0.649435907127156</v>
+        <v>1.597061871658127</v>
       </c>
       <c r="D3">
-        <v>0.06981875351138456</v>
+        <v>0.1734617284756439</v>
       </c>
       <c r="E3">
-        <v>0.01676052461432231</v>
+        <v>0.01326177485270641</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002584884137783769</v>
+        <v>0.0007989295103240088</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.298994561044381</v>
+        <v>2.059242030556447</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3345601425693019</v>
+        <v>0.4060538037564072</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.36650016725136</v>
+        <v>1.620970811992038</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.304972070762403</v>
+        <v>4.766750768645466</v>
       </c>
       <c r="C4">
-        <v>0.6111925746459406</v>
+        <v>1.437061505535439</v>
       </c>
       <c r="D4">
-        <v>0.06563747383457041</v>
+        <v>0.1561274139882158</v>
       </c>
       <c r="E4">
-        <v>0.01651634184707262</v>
+        <v>0.01242676918698216</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002590019711914158</v>
+        <v>0.0008075083081186979</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.276372573284661</v>
+        <v>1.936732386900772</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3275767838947417</v>
+        <v>0.3711529891729555</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.366031438250417</v>
+        <v>1.614433846715514</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.262899589111157</v>
+        <v>4.569007205730259</v>
       </c>
       <c r="C5">
-        <v>0.5957231724231633</v>
+        <v>1.37294974037485</v>
       </c>
       <c r="D5">
-        <v>0.06394579063957906</v>
+        <v>0.1491770401345605</v>
       </c>
       <c r="E5">
-        <v>0.01641597210753787</v>
+        <v>0.01209244482845495</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002592175156307088</v>
+        <v>0.0008110446919361776</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.267473042003161</v>
+        <v>1.888226139579146</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3247896098815204</v>
+        <v>0.35719179318545</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.366006437633075</v>
+        <v>1.612467483285371</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.255952055657701</v>
+        <v>4.536357630354246</v>
       </c>
       <c r="C6">
-        <v>0.5931613478694544</v>
+        <v>1.362364290488131</v>
       </c>
       <c r="D6">
-        <v>0.06366561637783263</v>
+        <v>0.1480292164168873</v>
       </c>
       <c r="E6">
-        <v>0.01639925291774436</v>
+        <v>0.01203724923028293</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002592536857886048</v>
+        <v>0.0008116344926353851</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.266014466711965</v>
+        <v>1.880251791938051</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3243303250867058</v>
+        <v>0.3548881803124146</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.366012269527459</v>
+        <v>1.612181001835495</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.304402076060512</v>
+        <v>4.764071155161275</v>
       </c>
       <c r="C7">
-        <v>0.6109834871369912</v>
+        <v>1.436192714175604</v>
       </c>
       <c r="D7">
-        <v>0.06561461015702719</v>
+        <v>0.1560332455691622</v>
       </c>
       <c r="E7">
-        <v>0.0165149917543097</v>
+        <v>0.01242223814984378</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002590048527042921</v>
+        <v>0.0008075558307498999</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.276251263020754</v>
+        <v>1.936072728845787</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3275389585430304</v>
+        <v>0.3709636983684419</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.366030430872542</v>
+        <v>1.614404599449202</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.523860568977966</v>
+        <v>5.799719697075375</v>
       </c>
       <c r="C8">
-        <v>0.6906473697472961</v>
+        <v>1.772096574263514</v>
       </c>
       <c r="D8">
-        <v>0.07432329587261677</v>
+        <v>0.1924063846541344</v>
       </c>
       <c r="E8">
-        <v>0.01701821056465747</v>
+        <v>0.0141773654514088</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002579617444389534</v>
+        <v>0.0007898986344055899</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.324233742494854</v>
+        <v>2.195387604049557</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3422139167862639</v>
+        <v>0.4443066744480149</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.367572012185533</v>
+        <v>1.630547150776465</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.975105811234641</v>
+        <v>7.985276028704902</v>
       </c>
       <c r="C9">
-        <v>0.8507521972218228</v>
+        <v>2.482815992459678</v>
       </c>
       <c r="D9">
-        <v>0.09181357296449733</v>
+        <v>0.2691319596286235</v>
       </c>
       <c r="E9">
-        <v>0.01797976129167811</v>
+        <v>0.01793909397341764</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002561119217767581</v>
+        <v>0.000756098640937635</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.428640254854301</v>
+        <v>2.766099924356922</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3728856257973661</v>
+        <v>0.5999669015741063</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.3759499877564</v>
+        <v>1.690836596031829</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.319941277953262</v>
+        <v>9.738321158450162</v>
       </c>
       <c r="C10">
-        <v>0.970975693340165</v>
+        <v>3.055693416304791</v>
       </c>
       <c r="D10">
-        <v>0.1049392873770074</v>
+        <v>0.3307400205936233</v>
       </c>
       <c r="E10">
-        <v>0.01867251963511674</v>
+        <v>0.0210464223333604</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002548705051328908</v>
+        <v>0.0007312888586802549</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.511851558253156</v>
+        <v>3.242021083908881</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3966163120191339</v>
+        <v>0.7253758304775033</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.385468838339165</v>
+        <v>1.759687257990265</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.47983448044306</v>
+        <v>10.5833898149375</v>
       </c>
       <c r="C11">
-        <v>1.026282647888479</v>
+        <v>3.33294212385249</v>
       </c>
       <c r="D11">
-        <v>0.1109757609534086</v>
+        <v>0.3604767552342452</v>
       </c>
       <c r="E11">
-        <v>0.01898507967868746</v>
+        <v>0.02258047106383287</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002543309409350028</v>
+        <v>0.0007198667272356493</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.551167412840883</v>
+        <v>3.476318942482905</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4076811398072095</v>
+        <v>0.7859448493389891</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.390551525195491</v>
+        <v>1.798434145372909</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.5408270640811</v>
+        <v>10.91194160030329</v>
       </c>
       <c r="C12">
-        <v>1.04731863070748</v>
+        <v>3.440940364330118</v>
       </c>
       <c r="D12">
-        <v>0.1132714622368667</v>
+        <v>0.3720458945174983</v>
       </c>
       <c r="E12">
-        <v>0.01910309782832975</v>
+        <v>0.02318393001502983</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00254130212559551</v>
+        <v>0.0007155065812266773</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.566269494590074</v>
+        <v>3.568201869920074</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4119106046595675</v>
+        <v>0.8095085736748615</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.392586217727086</v>
+        <v>1.814404262601585</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.527671298492464</v>
+        <v>10.84077046753305</v>
       </c>
       <c r="C13">
-        <v>1.042783983344691</v>
+        <v>3.417535581216555</v>
       </c>
       <c r="D13">
-        <v>0.1127765987219647</v>
+        <v>0.3695393872465615</v>
       </c>
       <c r="E13">
-        <v>0.01907769522523495</v>
+        <v>0.02305286192386546</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00254173283637703</v>
+        <v>0.0007164474509495193</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.563007412604208</v>
+        <v>3.548261521084214</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4109979478878643</v>
+        <v>0.8044035334022226</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.392143089776766</v>
+        <v>1.810902813481363</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.484843413918497</v>
+        <v>10.61023750396635</v>
       </c>
       <c r="C14">
-        <v>1.028011416371157</v>
+        <v>3.341762773723133</v>
       </c>
       <c r="D14">
-        <v>0.1111644305643154</v>
+        <v>0.3614219585764999</v>
       </c>
       <c r="E14">
-        <v>0.01899479577774166</v>
+        <v>0.02262963079145486</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002543143550580035</v>
+        <v>0.0007195088147660123</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.552405559408896</v>
+        <v>3.483810908352652</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.40802830571198</v>
+        <v>0.787870071078089</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.390716705920823</v>
+        <v>1.799720488236943</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.458668267746475</v>
+        <v>10.47019954037989</v>
       </c>
       <c r="C15">
-        <v>1.018974944027036</v>
+        <v>3.295762749416554</v>
       </c>
       <c r="D15">
-        <v>0.1101782218080558</v>
+        <v>0.3564920934194618</v>
       </c>
       <c r="E15">
-        <v>0.01894397387374536</v>
+        <v>0.02237350636604951</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002544012325052431</v>
+        <v>0.0007213789338918383</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.545939601274114</v>
+        <v>3.44476486372902</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4062144729097383</v>
+        <v>0.7778286854226621</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.389857381832968</v>
+        <v>1.79304776799475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.309553565165743</v>
+        <v>9.684187649574255</v>
       </c>
       <c r="C16">
-        <v>0.9673739825688017</v>
+        <v>3.037958772071534</v>
       </c>
       <c r="D16">
-        <v>0.1045461418852369</v>
+        <v>0.328836080839821</v>
       </c>
       <c r="E16">
-        <v>0.01865204369364015</v>
+        <v>0.02094900719542725</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00254906271078347</v>
+        <v>0.0007320313621371006</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.509311920460803</v>
+        <v>3.227115340903921</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.39589868296666</v>
+        <v>0.7214980587655617</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.385151966590996</v>
+        <v>1.75732286130588</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.21885811038976</v>
+        <v>9.215270561845728</v>
       </c>
       <c r="C17">
-        <v>0.935879060238392</v>
+        <v>2.884460252243287</v>
       </c>
       <c r="D17">
-        <v>0.1011081049491338</v>
+        <v>0.3123480954588729</v>
       </c>
       <c r="E17">
-        <v>0.01847231405419425</v>
+        <v>0.02010926798814161</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002552225224930161</v>
+        <v>0.0007385216848676438</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.487219240100472</v>
+        <v>3.098536246645963</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3896398167284048</v>
+        <v>0.6879202437579721</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.382459338678004</v>
+        <v>1.737455357175975</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.16697671127281</v>
+        <v>8.949919946721138</v>
       </c>
       <c r="C18">
-        <v>0.9178218288915332</v>
+        <v>2.797694027977059</v>
       </c>
       <c r="D18">
-        <v>0.09913677976683744</v>
+        <v>0.3030211847816418</v>
       </c>
       <c r="E18">
-        <v>0.0183686937589993</v>
+        <v>0.01963723161303044</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002554067918882623</v>
+        <v>0.0007422430410630975</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.474649556658221</v>
+        <v>3.026213080910608</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3860652182853528</v>
+        <v>0.6689297624682524</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.38098133215982</v>
+        <v>1.726710551094868</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.149459095374027</v>
+        <v>8.860780010628787</v>
       </c>
       <c r="C19">
-        <v>0.9117177772314449</v>
+        <v>2.76856149044977</v>
       </c>
       <c r="D19">
-        <v>0.09847036597430758</v>
+        <v>0.2998884742778216</v>
       </c>
       <c r="E19">
-        <v>0.01833356682145215</v>
+        <v>0.01947915410457757</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002554695901556181</v>
+        <v>0.0007435014252645811</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.470417172280605</v>
+        <v>3.00199002095124</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3848592516008722</v>
+        <v>0.6625520714634376</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.380492997405483</v>
+        <v>1.723183640634289</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.228483312697563</v>
+        <v>9.264725536178048</v>
       </c>
       <c r="C20">
-        <v>0.9392257378867157</v>
+        <v>2.900638916375328</v>
       </c>
       <c r="D20">
-        <v>0.1014734512462212</v>
+        <v>0.3140866634421968</v>
       </c>
       <c r="E20">
-        <v>0.01849147168171417</v>
+        <v>0.0201974921517909</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002551886118912439</v>
+        <v>0.0007378320894558804</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.489556792404244</v>
+        <v>3.112050903804217</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.390303456663105</v>
+        <v>0.6914604842905021</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.382738641299966</v>
+        <v>1.739498168606474</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.497410862139191</v>
+        <v>10.67770311173911</v>
       </c>
       <c r="C21">
-        <v>1.032347938197177</v>
+        <v>3.363931679676909</v>
       </c>
       <c r="D21">
-        <v>0.1116376937106622</v>
+        <v>0.3637972954603441</v>
       </c>
       <c r="E21">
-        <v>0.01901915438766544</v>
+        <v>0.02275328294525281</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002542728216470746</v>
+        <v>0.0007186107042163593</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.555513742311248</v>
+        <v>3.502650332845491</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.40889948527456</v>
+        <v>0.7927082006124806</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.39113267000954</v>
+        <v>1.802967672755756</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.675765976915727</v>
+        <v>11.65208605696023</v>
       </c>
       <c r="C22">
-        <v>1.093749295746591</v>
+        <v>3.684678408089098</v>
       </c>
       <c r="D22">
-        <v>0.1183380420049787</v>
+        <v>0.3981256525584911</v>
       </c>
       <c r="E22">
-        <v>0.01936204877892678</v>
+        <v>0.02455869945738698</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002536952298844248</v>
+        <v>0.0007058352459410333</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.599869677914029</v>
+        <v>3.776743689602341</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4212833678134587</v>
+        <v>0.8626174466126315</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.397260604601513</v>
+        <v>1.852164460323934</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.580333845923178</v>
+        <v>11.12669971507705</v>
       </c>
       <c r="C23">
-        <v>1.060927503570952</v>
+        <v>3.511598400630589</v>
       </c>
       <c r="D23">
-        <v>0.1147565514445432</v>
+        <v>0.3796105918699197</v>
       </c>
       <c r="E23">
-        <v>0.01917921060058347</v>
+        <v>0.02358060701831022</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002540015947947563</v>
+        <v>0.0007126793746959254</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.576080528613403</v>
+        <v>3.628492863289011</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4146525531628242</v>
+        <v>0.8249150309931679</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.393930675418289</v>
+        <v>1.825109021218793</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.224130947648746</v>
+        <v>9.24235387010367</v>
       </c>
       <c r="C24">
-        <v>0.9377125506532593</v>
+        <v>2.893319970193488</v>
       </c>
       <c r="D24">
-        <v>0.1013082618692636</v>
+        <v>0.3133001871221808</v>
       </c>
       <c r="E24">
-        <v>0.01848281142785968</v>
+        <v>0.0201575729244885</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002552039352468722</v>
+        <v>0.0007381438856903186</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.488499575092774</v>
+        <v>3.105935990991341</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3900033512578744</v>
+        <v>0.6898589727146884</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.382612150618613</v>
+        <v>1.738572520482023</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.850737555175044</v>
+        <v>7.372605703195973</v>
       </c>
       <c r="C25">
-        <v>0.8070006309040991</v>
+        <v>2.283241982724974</v>
       </c>
       <c r="D25">
-        <v>0.08703535973486964</v>
+        <v>0.2476193212541631</v>
       </c>
       <c r="E25">
-        <v>0.01772216629644685</v>
+        <v>0.01687386075123332</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002565915674529324</v>
+        <v>0.0007651981598266293</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.399269320998911</v>
+        <v>2.603334187671493</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3643811083563264</v>
+        <v>0.5562377016728988</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.373100110409055</v>
+        <v>1.670811398943613</v>
       </c>
       <c r="O25">
         <v>0</v>
